--- a/nominal_linnerud.xlsx
+++ b/nominal_linnerud.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>weight</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>&gt;50 jumps?</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,10 +400,11 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +415,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,10 +432,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -439,10 +449,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -455,8 +468,11 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -467,10 +483,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -483,8 +502,11 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -497,8 +519,11 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -511,8 +536,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -525,8 +553,11 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -537,10 +568,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -553,8 +587,11 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -565,10 +602,13 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -581,8 +621,11 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -595,8 +638,11 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -609,8 +655,11 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -623,8 +672,11 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -637,8 +689,11 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -651,8 +706,11 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -665,8 +723,11 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -679,8 +740,11 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -691,6 +755,9 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
